--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc107_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc107_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1936" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -390,10 +402,10 @@
       <c r="I9">
         <f>((C9-C8)^2+(D9- D8)^2)^.5</f>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="2" t="s">
+      <c r="J9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L9" t="n">
@@ -437,28 +449,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="2">
+      <c r="A11" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s" s="2">
+      <c r="C11" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -483,28 +495,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="s" s="2">
+      <c r="B13" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C13" t="s" s="2">
+      <c r="C13" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D13" t="s" s="2">
+      <c r="D13" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H13" t="s" s="2">
+      <c r="H13" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I13" t="s" s="2">
+      <c r="I13" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -795,10 +807,10 @@
       <c r="I23">
         <f>((C23-C22)^2+(D23- D22)^2)^.5</f>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="2" t="s">
+      <c r="J23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L23" t="n">
@@ -842,28 +854,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="2">
+      <c r="A25" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B25" t="s" s="2">
+      <c r="B25" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C25" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s" s="2">
+      <c r="C25" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E25" t="s" s="2">
+      <c r="E25" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="F25" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G25" t="s" s="2">
+      <c r="G25" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H25" t="s" s="2">
+      <c r="H25" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -888,28 +900,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C27" t="s" s="2">
+      <c r="C27" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D27" t="s" s="2">
+      <c r="D27" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I27" t="s" s="2">
+      <c r="I27" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1287,10 +1299,10 @@
       <c r="I40">
         <f>((C40-C39)^2+(D40- D39)^2)^.5</f>
       </c>
-      <c r="J40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="2" t="s">
+      <c r="J40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L40" t="n">
@@ -1334,28 +1346,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="2">
+      <c r="A42" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C42" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D42" t="s" s="2">
+      <c r="C42" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G42" t="s" s="2">
+      <c r="G42" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1380,28 +1392,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C44" t="s" s="2">
+      <c r="C44" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D44" t="s" s="2">
+      <c r="D44" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I44" t="s" s="2">
+      <c r="I44" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1547,10 +1559,10 @@
       <c r="I49">
         <f>((C49-C48)^2+(D49- D48)^2)^.5</f>
       </c>
-      <c r="J49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K49" s="2" t="s">
+      <c r="J49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K49" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L49" t="n">
@@ -1594,28 +1606,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="2">
+      <c r="A51" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B51" t="s" s="2">
+      <c r="B51" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C51" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D51" t="s" s="2">
+      <c r="C51" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D51" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E51" t="s" s="2">
+      <c r="E51" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F51" t="s" s="2">
+      <c r="F51" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G51" t="s" s="2">
+      <c r="G51" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H51" t="s" s="2">
+      <c r="H51" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1640,28 +1652,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="B53" t="s" s="2">
+      <c r="B53" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C53" t="s" s="2">
+      <c r="C53" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D53" t="s" s="2">
+      <c r="D53" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E53" t="s" s="2">
+      <c r="E53" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F53" t="s" s="2">
+      <c r="F53" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G53" t="s" s="2">
+      <c r="G53" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H53" t="s" s="2">
+      <c r="H53" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I53" t="s" s="2">
+      <c r="I53" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1836,10 +1848,10 @@
       <c r="I59">
         <f>((C59-C58)^2+(D59- D58)^2)^.5</f>
       </c>
-      <c r="J59" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K59" s="2" t="s">
+      <c r="J59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K59" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L59" t="n">
@@ -1883,28 +1895,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="2">
+      <c r="A61" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C61" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D61" t="s" s="2">
+      <c r="C61" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D61" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1929,28 +1941,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="s" s="2">
+      <c r="B63" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C63" t="s" s="2">
+      <c r="C63" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D63" t="s" s="2">
+      <c r="D63" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E63" t="s" s="2">
+      <c r="E63" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="F63" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G63" t="s" s="2">
+      <c r="G63" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H63" t="s" s="2">
+      <c r="H63" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I63" t="s" s="2">
+      <c r="I63" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2038,10 +2050,10 @@
       <c r="I66">
         <f>((C66-C65)^2+(D66- D65)^2)^.5</f>
       </c>
-      <c r="J66" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K66" s="2" t="s">
+      <c r="J66" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K66" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L66" t="n">
@@ -2085,28 +2097,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="s" s="2">
+      <c r="A68" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C68" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D68" t="s" s="2">
+      <c r="C68" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D68" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2131,28 +2143,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="B70" t="s" s="2">
+      <c r="B70" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C70" t="s" s="2">
+      <c r="C70" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D70" t="s" s="2">
+      <c r="D70" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E70" t="s" s="2">
+      <c r="E70" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F70" t="s" s="2">
+      <c r="F70" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G70" t="s" s="2">
+      <c r="G70" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H70" t="s" s="2">
+      <c r="H70" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I70" t="s" s="2">
+      <c r="I70" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2269,10 +2281,10 @@
       <c r="I74">
         <f>((C74-C73)^2+(D74- D73)^2)^.5</f>
       </c>
-      <c r="J74" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K74" s="2" t="s">
+      <c r="J74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K74" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="n">
@@ -2316,28 +2328,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="2">
+      <c r="A76" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C76" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D76" t="s" s="2">
+      <c r="C76" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2362,28 +2374,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s" s="2">
+      <c r="B78" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C78" t="s" s="2">
+      <c r="C78" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D78" t="s" s="2">
+      <c r="D78" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E78" t="s" s="2">
+      <c r="E78" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="F78" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G78" t="s" s="2">
+      <c r="G78" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H78" t="s" s="2">
+      <c r="H78" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I78" t="s" s="2">
+      <c r="I78" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2500,10 +2512,10 @@
       <c r="I82">
         <f>((C82-C81)^2+(D82- D81)^2)^.5</f>
       </c>
-      <c r="J82" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K82" s="2" t="s">
+      <c r="J82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K82" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L82" t="n">
@@ -2547,28 +2559,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="2">
+      <c r="A84" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B84" t="s" s="2">
+      <c r="B84" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C84" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D84" t="s" s="2">
+      <c r="C84" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E84" t="s" s="2">
+      <c r="E84" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F84" t="s" s="2">
+      <c r="F84" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G84" t="s" s="2">
+      <c r="G84" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H84" t="s" s="2">
+      <c r="H84" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2593,28 +2605,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C86" t="s" s="2">
+      <c r="C86" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D86" t="s" s="2">
+      <c r="D86" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I86" t="s" s="2">
+      <c r="I86" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2847,10 +2859,10 @@
       <c r="I94">
         <f>((C94-C93)^2+(D94- D93)^2)^.5</f>
       </c>
-      <c r="J94" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K94" s="2" t="s">
+      <c r="J94" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K94" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L94" t="n">
@@ -2894,28 +2906,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s" s="2">
+      <c r="A96" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C96" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D96" t="s" s="2">
+      <c r="C96" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D96" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2940,28 +2952,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C98" t="s" s="2">
+      <c r="C98" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D98" t="s" s="2">
+      <c r="D98" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I98" t="s" s="2">
+      <c r="I98" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3107,10 +3119,10 @@
       <c r="I103">
         <f>((C103-C102)^2+(D103- D102)^2)^.5</f>
       </c>
-      <c r="J103" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K103" s="2" t="s">
+      <c r="J103" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K103" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L103" t="n">
@@ -3154,28 +3166,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="s" s="2">
+      <c r="A105" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B105" t="s" s="2">
+      <c r="B105" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C105" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D105" t="s" s="2">
+      <c r="C105" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D105" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E105" t="s" s="2">
+      <c r="E105" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F105" t="s" s="2">
+      <c r="F105" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G105" t="s" s="2">
+      <c r="G105" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H105" t="s" s="2">
+      <c r="H105" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3200,28 +3212,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C107" t="s" s="2">
+      <c r="C107" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D107" t="s" s="2">
+      <c r="D107" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I107" t="s" s="2">
+      <c r="I107" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3396,10 +3408,10 @@
       <c r="I113">
         <f>((C113-C112)^2+(D113- D112)^2)^.5</f>
       </c>
-      <c r="J113" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K113" s="2" t="s">
+      <c r="J113" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K113" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L113" t="n">
@@ -3443,28 +3455,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="2">
+      <c r="A115" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B115" t="s" s="2">
+      <c r="B115" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C115" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D115" t="s" s="2">
+      <c r="C115" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E115" t="s" s="2">
+      <c r="E115" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F115" t="s" s="2">
+      <c r="F115" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G115" t="s" s="2">
+      <c r="G115" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H115" t="s" s="2">
+      <c r="H115" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3489,28 +3501,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C117" t="s" s="2">
+      <c r="C117" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D117" t="s" s="2">
+      <c r="D117" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I117" t="s" s="2">
+      <c r="I117" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3598,10 +3610,10 @@
       <c r="I120">
         <f>((C120-C119)^2+(D120- D119)^2)^.5</f>
       </c>
-      <c r="J120" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K120" s="2" t="s">
+      <c r="J120" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K120" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L120" t="n">
@@ -3645,28 +3657,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="2">
+      <c r="A122" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B122" t="s" s="2">
+      <c r="B122" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C122" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D122" t="s" s="2">
+      <c r="C122" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E122" t="s" s="2">
+      <c r="E122" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F122" t="s" s="2">
+      <c r="F122" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G122" t="s" s="2">
+      <c r="G122" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H122" t="s" s="2">
+      <c r="H122" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3691,28 +3703,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C124" t="s" s="2">
+      <c r="C124" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D124" t="s" s="2">
+      <c r="D124" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I124" t="s" s="2">
+      <c r="I124" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3858,10 +3870,10 @@
       <c r="I129">
         <f>((C129-C128)^2+(D129- D128)^2)^.5</f>
       </c>
-      <c r="J129" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K129" s="2" t="s">
+      <c r="J129" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K129" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L129" t="n">
@@ -3905,28 +3917,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="s" s="2">
+      <c r="A131" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C131" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D131" t="s" s="2">
+      <c r="C131" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D131" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3951,28 +3963,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="B133" t="s" s="2">
+      <c r="B133" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C133" t="s" s="2">
+      <c r="C133" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D133" t="s" s="2">
+      <c r="D133" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E133" t="s" s="2">
+      <c r="E133" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G133" t="s" s="2">
+      <c r="G133" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H133" t="s" s="2">
+      <c r="H133" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I133" t="s" s="2">
+      <c r="I133" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4147,10 +4159,10 @@
       <c r="I139">
         <f>((C139-C138)^2+(D139- D138)^2)^.5</f>
       </c>
-      <c r="J139" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K139" s="2" t="s">
+      <c r="J139" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K139" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L139" t="n">
@@ -4194,28 +4206,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="s" s="2">
+      <c r="A141" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B141" t="s" s="2">
+      <c r="B141" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C141" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D141" t="s" s="2">
+      <c r="C141" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D141" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E141" t="s" s="2">
+      <c r="E141" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F141" t="s" s="2">
+      <c r="F141" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G141" t="s" s="2">
+      <c r="G141" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H141" t="s" s="2">
+      <c r="H141" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4240,28 +4252,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="B143" t="s" s="2">
+      <c r="B143" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C143" t="s" s="2">
+      <c r="C143" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D143" t="s" s="2">
+      <c r="D143" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E143" t="s" s="2">
+      <c r="E143" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F143" t="s" s="2">
+      <c r="F143" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G143" t="s" s="2">
+      <c r="G143" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H143" t="s" s="2">
+      <c r="H143" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I143" t="s" s="2">
+      <c r="I143" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4407,10 +4419,10 @@
       <c r="I148">
         <f>((C148-C147)^2+(D148- D147)^2)^.5</f>
       </c>
-      <c r="J148" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K148" s="2" t="s">
+      <c r="J148" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K148" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L148" t="n">
@@ -4454,28 +4466,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="s" s="2">
+      <c r="A150" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C150" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D150" t="s" s="2">
+      <c r="C150" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D150" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4500,28 +4512,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C152" t="s" s="2">
+      <c r="C152" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D152" t="s" s="2">
+      <c r="D152" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I152" t="s" s="2">
+      <c r="I152" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4638,10 +4650,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K156" s="2" t="s">
+      <c r="J156" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K156" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4685,28 +4697,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="2">
+      <c r="A158" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D158" t="s" s="2">
+      <c r="C158" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4731,28 +4743,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="2">
+      <c r="C160" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="2">
+      <c r="D160" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="2">
+      <c r="I160" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4869,10 +4881,10 @@
       <c r="I164">
         <f>((C164-C163)^2+(D164- D163)^2)^.5</f>
       </c>
-      <c r="J164" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K164" s="2" t="s">
+      <c r="J164" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K164" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L164" t="n">
@@ -4916,28 +4928,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s" s="2">
+      <c r="A166" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C166" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D166" t="s" s="2">
+      <c r="C166" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D166" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4962,28 +4974,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C168" t="s" s="2">
+      <c r="C168" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D168" t="s" s="2">
+      <c r="D168" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I168" t="s" s="2">
+      <c r="I168" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5100,10 +5112,10 @@
       <c r="I172">
         <f>((C172-C171)^2+(D172- D171)^2)^.5</f>
       </c>
-      <c r="J172" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K172" s="2" t="s">
+      <c r="J172" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K172" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L172" t="n">
@@ -5147,28 +5159,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="s" s="2">
+      <c r="A174" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C174" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D174" t="s" s="2">
+      <c r="C174" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D174" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5193,28 +5205,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="B176" t="s" s="2">
+      <c r="B176" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C176" t="s" s="2">
+      <c r="C176" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D176" t="s" s="2">
+      <c r="D176" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E176" t="s" s="2">
+      <c r="E176" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F176" t="s" s="2">
+      <c r="F176" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G176" t="s" s="2">
+      <c r="G176" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H176" t="s" s="2">
+      <c r="H176" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I176" t="s" s="2">
+      <c r="I176" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5331,10 +5343,10 @@
       <c r="I180">
         <f>((C180-C179)^2+(D180- D179)^2)^.5</f>
       </c>
-      <c r="J180" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K180" s="2" t="s">
+      <c r="J180" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K180" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L180" t="n">
@@ -5378,28 +5390,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="s" s="2">
+      <c r="A182" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B182" t="s" s="2">
+      <c r="B182" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C182" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D182" t="s" s="2">
+      <c r="C182" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D182" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E182" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G182" t="s" s="2">
+      <c r="G182" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H182" t="s" s="2">
+      <c r="H182" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5424,28 +5436,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="B184" t="s" s="2">
+      <c r="B184" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C184" t="s" s="2">
+      <c r="C184" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D184" t="s" s="2">
+      <c r="D184" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E184" t="s" s="2">
+      <c r="E184" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F184" t="s" s="2">
+      <c r="F184" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G184" t="s" s="2">
+      <c r="G184" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H184" t="s" s="2">
+      <c r="H184" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I184" t="s" s="2">
+      <c r="I184" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5620,10 +5632,10 @@
       <c r="I190">
         <f>((C190-C189)^2+(D190- D189)^2)^.5</f>
       </c>
-      <c r="J190" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K190" s="2" t="s">
+      <c r="J190" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K190" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L190" t="n">
@@ -5667,28 +5679,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="s" s="2">
+      <c r="A192" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B192" t="s" s="2">
+      <c r="B192" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C192" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D192" t="s" s="2">
+      <c r="C192" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D192" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E192" t="s" s="2">
+      <c r="E192" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F192" t="s" s="2">
+      <c r="F192" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G192" t="s" s="2">
+      <c r="G192" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H192" t="s" s="2">
+      <c r="H192" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5713,28 +5725,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="B194" t="s" s="2">
+      <c r="B194" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C194" t="s" s="2">
+      <c r="C194" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D194" t="s" s="2">
+      <c r="D194" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E194" t="s" s="2">
+      <c r="E194" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F194" t="s" s="2">
+      <c r="F194" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G194" t="s" s="2">
+      <c r="G194" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H194" t="s" s="2">
+      <c r="H194" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I194" t="s" s="2">
+      <c r="I194" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5880,10 +5892,10 @@
       <c r="I199">
         <f>((C199-C198)^2+(D199- D198)^2)^.5</f>
       </c>
-      <c r="J199" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K199" s="2" t="s">
+      <c r="J199" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K199" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L199" t="n">
@@ -5927,28 +5939,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="s" s="2">
+      <c r="A201" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C201" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D201" t="s" s="2">
+      <c r="C201" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D201" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5973,28 +5985,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="B203" t="s" s="2">
+      <c r="B203" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C203" t="s" s="2">
+      <c r="C203" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D203" t="s" s="2">
+      <c r="D203" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E203" t="s" s="2">
+      <c r="E203" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F203" t="s" s="2">
+      <c r="F203" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G203" t="s" s="2">
+      <c r="G203" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H203" t="s" s="2">
+      <c r="H203" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I203" t="s" s="2">
+      <c r="I203" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6111,10 +6123,10 @@
       <c r="I207">
         <f>((C207-C206)^2+(D207- D206)^2)^.5</f>
       </c>
-      <c r="J207" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K207" s="2" t="s">
+      <c r="J207" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K207" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L207" t="n">
@@ -6158,28 +6170,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="s" s="2">
+      <c r="A209" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B209" t="s" s="2">
+      <c r="B209" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C209" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D209" t="s" s="2">
+      <c r="C209" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D209" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E209" t="s" s="2">
+      <c r="E209" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F209" t="s" s="2">
+      <c r="F209" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G209" t="s" s="2">
+      <c r="G209" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H209" t="s" s="2">
+      <c r="H209" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6204,28 +6216,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="B211" t="s" s="2">
+      <c r="B211" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C211" t="s" s="2">
+      <c r="C211" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D211" t="s" s="2">
+      <c r="D211" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E211" t="s" s="2">
+      <c r="E211" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F211" t="s" s="2">
+      <c r="F211" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G211" t="s" s="2">
+      <c r="G211" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H211" t="s" s="2">
+      <c r="H211" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I211" t="s" s="2">
+      <c r="I211" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6284,10 +6296,10 @@
       <c r="I213">
         <f>((C213-C212)^2+(D213- D212)^2)^.5</f>
       </c>
-      <c r="J213" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K213" s="2" t="s">
+      <c r="J213" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K213" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L213" t="n">
@@ -6331,28 +6343,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="s" s="2">
+      <c r="A215" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B215" t="s" s="2">
+      <c r="B215" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C215" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D215" t="s" s="2">
+      <c r="C215" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D215" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E215" t="s" s="2">
+      <c r="E215" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F215" t="s" s="2">
+      <c r="F215" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G215" t="s" s="2">
+      <c r="G215" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H215" t="s" s="2">
+      <c r="H215" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6377,28 +6389,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="B217" t="s" s="2">
+      <c r="B217" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C217" t="s" s="2">
+      <c r="C217" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D217" t="s" s="2">
+      <c r="D217" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E217" t="s" s="2">
+      <c r="E217" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F217" t="s" s="2">
+      <c r="F217" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G217" t="s" s="2">
+      <c r="G217" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H217" t="s" s="2">
+      <c r="H217" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I217" t="s" s="2">
+      <c r="I217" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6457,10 +6469,10 @@
       <c r="I219">
         <f>((C219-C218)^2+(D219- D218)^2)^.5</f>
       </c>
-      <c r="J219" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K219" s="2" t="s">
+      <c r="J219" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K219" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L219" t="n">
@@ -6504,28 +6516,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="s" s="2">
+      <c r="A221" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B221" t="s" s="2">
+      <c r="B221" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C221" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D221" t="s" s="2">
+      <c r="C221" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D221" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E221" t="s" s="2">
+      <c r="E221" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F221" t="s" s="2">
+      <c r="F221" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G221" t="s" s="2">
+      <c r="G221" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H221" t="s" s="2">
+      <c r="H221" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6550,28 +6562,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="B223" t="s" s="2">
+      <c r="B223" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C223" t="s" s="2">
+      <c r="C223" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D223" t="s" s="2">
+      <c r="D223" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E223" t="s" s="2">
+      <c r="E223" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F223" t="s" s="2">
+      <c r="F223" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G223" t="s" s="2">
+      <c r="G223" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H223" t="s" s="2">
+      <c r="H223" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I223" t="s" s="2">
+      <c r="I223" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6630,10 +6642,10 @@
       <c r="I225">
         <f>((C225-C224)^2+(D225- D224)^2)^.5</f>
       </c>
-      <c r="J225" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K225" s="2" t="s">
+      <c r="J225" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K225" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L225" t="n">
@@ -6677,28 +6689,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="s" s="2">
+      <c r="A227" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B227" t="s" s="2">
+      <c r="B227" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C227" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D227" t="s" s="2">
+      <c r="C227" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D227" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E227" t="s" s="2">
+      <c r="E227" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F227" t="s" s="2">
+      <c r="F227" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G227" t="s" s="2">
+      <c r="G227" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H227" t="s" s="2">
+      <c r="H227" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6723,28 +6735,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="B229" t="s" s="2">
+      <c r="B229" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C229" t="s" s="2">
+      <c r="C229" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D229" t="s" s="2">
+      <c r="D229" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E229" t="s" s="2">
+      <c r="E229" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F229" t="s" s="2">
+      <c r="F229" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G229" t="s" s="2">
+      <c r="G229" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H229" t="s" s="2">
+      <c r="H229" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I229" t="s" s="2">
+      <c r="I229" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6803,10 +6815,10 @@
       <c r="I231">
         <f>((C231-C230)^2+(D231- D230)^2)^.5</f>
       </c>
-      <c r="J231" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K231" s="2" t="s">
+      <c r="J231" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K231" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L231" t="n">
